--- a/_files/student_grades_g2.xlsx
+++ b/_files/student_grades_g2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\GRADE PLATFORM\GRADE FORMATS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA8C49-34B5-4122-9E98-89EAFB18E5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Grado 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="87">
   <si>
     <t>firstName</t>
   </si>
@@ -270,17 +269,41 @@
   </si>
   <si>
     <t>&lt;span&gt;Guía #4 - &lt;/span&gt; Tablas de multiplicar del 7 al 9</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Esta nota fue acordada con su acudiente y corresponde a la nota de seguimiento de los temas que se trabajaban en el taller.</t>
+  </si>
+  <si>
+    <t>Waira puedes cuidar más del orden y la presentación de tu tarea.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE81FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -445,16 +474,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -473,8 +499,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,6 +513,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDE81FF"/>
       <color rgb="FF95B3D7"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF0070C0"/>
@@ -799,24 +829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C651C-DE2B-48EF-855C-478E0DB36FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" customHeight="1">
+    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -863,13 +893,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1">
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
@@ -911,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -924,29 +954,41 @@
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1">
+      <c r="M3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -959,27 +1001,41 @@
       <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1">
+      <c r="I4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -992,29 +1048,41 @@
       <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="L5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.8" customHeight="1">
+      <c r="O5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1027,29 +1095,41 @@
       <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+      <c r="M6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1062,29 +1142,41 @@
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="L7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="M7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1097,29 +1189,41 @@
       <c r="D8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="N8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1">
+      <c r="O8" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1129,32 +1233,40 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1">
+      <c r="M9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1164,32 +1276,40 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="M10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1199,30 +1319,30 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1235,29 +1355,41 @@
       <c r="D12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="L12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1">
+      <c r="M12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1270,29 +1402,41 @@
       <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1305,29 +1449,41 @@
       <c r="D14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1">
+      <c r="K14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1340,29 +1496,41 @@
       <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="N15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1373,31 +1541,43 @@
         <v>59</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1">
+      <c r="M16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1410,29 +1590,41 @@
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="L17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" customHeight="1">
+      <c r="O17" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1445,27 +1637,41 @@
       <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="F18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="J18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="L18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="M18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1478,29 +1684,41 @@
       <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="H19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="K19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1513,29 +1731,41 @@
       <c r="D20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="F20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="H20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="K20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1548,29 +1778,41 @@
       <c r="D21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="H21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="J21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="K21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1583,29 +1825,41 @@
       <c r="D22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="H22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="J22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="K22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
@@ -1618,25 +1872,39 @@
       <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="F23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="H23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="J23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="16"/>
+      <c r="K23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
